--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Myoc</t>
+  </si>
+  <si>
+    <t>Fzd7</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Myoc</t>
-  </si>
-  <si>
-    <t>Fzd7</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9392963333333334</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H2">
-        <v>2.817889</v>
+        <v>0.731707</v>
       </c>
       <c r="I2">
-        <v>0.02351740654579802</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J2">
-        <v>0.02351740654579801</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N2">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O2">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P2">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q2">
-        <v>1.222135679732778</v>
+        <v>0.2739801251776667</v>
       </c>
       <c r="R2">
-        <v>10.999221117595</v>
+        <v>2.465821126599</v>
       </c>
       <c r="S2">
-        <v>0.00136602879114457</v>
+        <v>0.0003218545445642254</v>
       </c>
       <c r="T2">
-        <v>0.00136602879114457</v>
+        <v>0.0003218545445642254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9392963333333334</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H3">
-        <v>2.817889</v>
+        <v>0.731707</v>
       </c>
       <c r="I3">
-        <v>0.02351740654579802</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J3">
-        <v>0.02351740654579801</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>33.622946</v>
       </c>
       <c r="O3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P3">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q3">
-        <v>10.52730329788822</v>
+        <v>2.733571660980222</v>
       </c>
       <c r="R3">
-        <v>94.745729680994</v>
+        <v>24.602144948822</v>
       </c>
       <c r="S3">
-        <v>0.01176677813806307</v>
+        <v>0.003211227315878968</v>
       </c>
       <c r="T3">
-        <v>0.01176677813806307</v>
+        <v>0.003211227315878969</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9392963333333334</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H4">
-        <v>2.817889</v>
+        <v>0.731707</v>
       </c>
       <c r="I4">
-        <v>0.02351740654579802</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J4">
-        <v>0.02351740654579801</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N4">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P4">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q4">
-        <v>5.677039409330668</v>
+        <v>1.209419150714889</v>
       </c>
       <c r="R4">
-        <v>51.09335468397601</v>
+        <v>10.884772356434</v>
       </c>
       <c r="S4">
-        <v>0.006345448717530042</v>
+        <v>0.00142074922291598</v>
       </c>
       <c r="T4">
-        <v>0.006345448717530039</v>
+        <v>0.00142074922291598</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.9392963333333334</v>
+        <v>0.2439023333333333</v>
       </c>
       <c r="H5">
-        <v>2.817889</v>
+        <v>0.731707</v>
       </c>
       <c r="I5">
-        <v>0.02351740654579802</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="J5">
-        <v>0.02351740654579801</v>
+        <v>0.006368708152767561</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N5">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O5">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P5">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q5">
-        <v>3.613679639526667</v>
+        <v>1.204420453694</v>
       </c>
       <c r="R5">
-        <v>32.52311675574</v>
+        <v>10.839784083246</v>
       </c>
       <c r="S5">
-        <v>0.004039150899060333</v>
+        <v>0.001414877069408387</v>
       </c>
       <c r="T5">
-        <v>0.004039150899060332</v>
+        <v>0.001414877069408387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>112.284579</v>
       </c>
       <c r="I6">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J6">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N6">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O6">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P6">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q6">
-        <v>48.69850809583833</v>
+        <v>42.04380033256701</v>
       </c>
       <c r="R6">
-        <v>438.286572862545</v>
+        <v>378.3942029931031</v>
       </c>
       <c r="S6">
-        <v>0.0544322248731398</v>
+        <v>0.04939040085120244</v>
       </c>
       <c r="T6">
-        <v>0.05443222487313979</v>
+        <v>0.04939040085120245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>112.284579</v>
       </c>
       <c r="I7">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J7">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>33.622946</v>
       </c>
       <c r="O7">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P7">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q7">
         <v>419.4820373721926</v>
@@ -883,10 +883,10 @@
         <v>3775.338336349734</v>
       </c>
       <c r="S7">
-        <v>0.4688714599541769</v>
+        <v>0.4927810000953524</v>
       </c>
       <c r="T7">
-        <v>0.4688714599541769</v>
+        <v>0.4927810000953525</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>112.284579</v>
       </c>
       <c r="I8">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J8">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N8">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O8">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P8">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q8">
-        <v>226.213303662104</v>
+        <v>185.5922113257887</v>
       </c>
       <c r="R8">
-        <v>2035.919732958936</v>
+        <v>1670.329901932098</v>
       </c>
       <c r="S8">
-        <v>0.2528474463734912</v>
+        <v>0.2180220065677901</v>
       </c>
       <c r="T8">
-        <v>0.2528474463734911</v>
+        <v>0.2180220065677901</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,10 +977,10 @@
         <v>112.284579</v>
       </c>
       <c r="I9">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029397</v>
       </c>
       <c r="J9">
-        <v>0.937099400709813</v>
+        <v>0.9773142989029399</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N9">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O9">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P9">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q9">
-        <v>143.99449267346</v>
+        <v>184.825132986318</v>
       </c>
       <c r="R9">
-        <v>1295.95043406114</v>
+        <v>1663.426196876862</v>
       </c>
       <c r="S9">
-        <v>0.1609482695090051</v>
+        <v>0.2171208913885948</v>
       </c>
       <c r="T9">
-        <v>0.1609482695090051</v>
+        <v>0.2171208913885948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.512001666666667</v>
+        <v>0.6248916666666666</v>
       </c>
       <c r="H10">
-        <v>4.536005</v>
+        <v>1.874675</v>
       </c>
       <c r="I10">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="J10">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.301118333333333</v>
+        <v>1.123319</v>
       </c>
       <c r="N10">
-        <v>3.903354999999999</v>
+        <v>3.369957</v>
       </c>
       <c r="O10">
-        <v>0.05808586029604725</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="P10">
-        <v>0.05808586029604724</v>
+        <v>0.05053686506648315</v>
       </c>
       <c r="Q10">
-        <v>1.967293088530555</v>
+        <v>0.7019526821083334</v>
       </c>
       <c r="R10">
-        <v>17.705637796775</v>
+        <v>6.317574138975</v>
       </c>
       <c r="S10">
-        <v>0.002198920336030173</v>
+        <v>0.0008246096707164741</v>
       </c>
       <c r="T10">
-        <v>0.002198920336030172</v>
+        <v>0.0008246096707164741</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.512001666666667</v>
+        <v>0.6248916666666666</v>
       </c>
       <c r="H11">
-        <v>4.536005</v>
+        <v>1.874675</v>
       </c>
       <c r="I11">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="J11">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>33.622946</v>
       </c>
       <c r="O11">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532222</v>
       </c>
       <c r="P11">
-        <v>0.5003433569576788</v>
+        <v>0.5042195746532223</v>
       </c>
       <c r="Q11">
-        <v>16.94598346341444</v>
+        <v>7.003566254727777</v>
       </c>
       <c r="R11">
-        <v>152.51385117073</v>
+        <v>63.03209629254999</v>
       </c>
       <c r="S11">
-        <v>0.01894118770048954</v>
+        <v>0.008227347241990857</v>
       </c>
       <c r="T11">
-        <v>0.01894118770048954</v>
+        <v>0.008227347241990859</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.512001666666667</v>
+        <v>0.6248916666666666</v>
       </c>
       <c r="H12">
-        <v>4.536005</v>
+        <v>1.874675</v>
       </c>
       <c r="I12">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="J12">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.043928000000001</v>
+        <v>4.958620666666667</v>
       </c>
       <c r="N12">
-        <v>18.131784</v>
+        <v>14.875862</v>
       </c>
       <c r="O12">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="P12">
-        <v>0.2698192381533591</v>
+        <v>0.2230827962023326</v>
       </c>
       <c r="Q12">
-        <v>9.138429209213335</v>
+        <v>3.098600732761112</v>
       </c>
       <c r="R12">
-        <v>82.24586288292002</v>
+        <v>27.88740659485</v>
       </c>
       <c r="S12">
-        <v>0.01021437931372026</v>
+        <v>0.003640040411626532</v>
       </c>
       <c r="T12">
-        <v>0.01021437931372025</v>
+        <v>0.003640040411626532</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.512001666666667</v>
+        <v>0.6248916666666666</v>
       </c>
       <c r="H13">
-        <v>4.536005</v>
+        <v>1.874675</v>
       </c>
       <c r="I13">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="J13">
-        <v>0.03785637889880422</v>
+        <v>0.01631699294429263</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.84722</v>
+        <v>4.938126</v>
       </c>
       <c r="N13">
-        <v>11.54166</v>
+        <v>14.814378</v>
       </c>
       <c r="O13">
-        <v>0.1717515445929148</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="P13">
-        <v>0.1717515445929147</v>
+        <v>0.222160764077962</v>
       </c>
       <c r="Q13">
-        <v>5.817003052033334</v>
+        <v>3.08579378635</v>
       </c>
       <c r="R13">
-        <v>52.35302746830001</v>
+        <v>27.77214407715</v>
       </c>
       <c r="S13">
-        <v>0.006501891548564251</v>
+        <v>0.003624995619958765</v>
       </c>
       <c r="T13">
-        <v>0.006501891548564249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.06098166666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.182945</v>
-      </c>
-      <c r="I14">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="J14">
-        <v>0.001526813845584768</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1.301118333333333</v>
-      </c>
-      <c r="N14">
-        <v>3.903354999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.05808586029604725</v>
-      </c>
-      <c r="P14">
-        <v>0.05808586029604724</v>
-      </c>
-      <c r="Q14">
-        <v>0.07934436449722221</v>
-      </c>
-      <c r="R14">
-        <v>0.7140992804749999</v>
-      </c>
-      <c r="S14">
-        <v>8.868629573270751E-05</v>
-      </c>
-      <c r="T14">
-        <v>8.86862957327075E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.06098166666666666</v>
-      </c>
-      <c r="H15">
-        <v>0.182945</v>
-      </c>
-      <c r="I15">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="J15">
-        <v>0.001526813845584768</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>11.20764866666667</v>
-      </c>
-      <c r="N15">
-        <v>33.622946</v>
-      </c>
-      <c r="O15">
-        <v>0.5003433569576788</v>
-      </c>
-      <c r="P15">
-        <v>0.5003433569576788</v>
-      </c>
-      <c r="Q15">
-        <v>0.6834610951077776</v>
-      </c>
-      <c r="R15">
-        <v>6.15114985597</v>
-      </c>
-      <c r="S15">
-        <v>0.0007639311649493462</v>
-      </c>
-      <c r="T15">
-        <v>0.0007639311649493461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.06098166666666666</v>
-      </c>
-      <c r="H16">
-        <v>0.182945</v>
-      </c>
-      <c r="I16">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="J16">
-        <v>0.001526813845584768</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.043928000000001</v>
-      </c>
-      <c r="N16">
-        <v>18.131784</v>
-      </c>
-      <c r="O16">
-        <v>0.2698192381533591</v>
-      </c>
-      <c r="P16">
-        <v>0.2698192381533591</v>
-      </c>
-      <c r="Q16">
-        <v>0.3685688026533334</v>
-      </c>
-      <c r="R16">
-        <v>3.317119223880001</v>
-      </c>
-      <c r="S16">
-        <v>0.0004119637486176828</v>
-      </c>
-      <c r="T16">
-        <v>0.0004119637486176826</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.06098166666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.182945</v>
-      </c>
-      <c r="I17">
-        <v>0.001526813845584769</v>
-      </c>
-      <c r="J17">
-        <v>0.001526813845584768</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>3.84722</v>
-      </c>
-      <c r="N17">
-        <v>11.54166</v>
-      </c>
-      <c r="O17">
-        <v>0.1717515445929148</v>
-      </c>
-      <c r="P17">
-        <v>0.1717515445929147</v>
-      </c>
-      <c r="Q17">
-        <v>0.2346098876333333</v>
-      </c>
-      <c r="R17">
-        <v>2.1114889887</v>
-      </c>
-      <c r="S17">
-        <v>0.000262232636285032</v>
-      </c>
-      <c r="T17">
-        <v>0.000262232636285032</v>
+        <v>0.003624995619958765</v>
       </c>
     </row>
   </sheetData>
